--- a/AI84 SmallNet.xlsx
+++ b/AI84 SmallNet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4506BF-7FA5-9846-B976-E1D06844F2EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088DBBB-94BA-D342-B2DC-2A34D1D1BC8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="900" windowWidth="39220" windowHeight="25000" activeTab="1" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{4AA6D0C7-A62E-F548-98BD-7B50E7867754}"/>
   </bookViews>
   <sheets>
-    <sheet name="SmallNet" sheetId="1" r:id="rId1"/>
-    <sheet name="ExtraSmallNet" sheetId="3" r:id="rId2"/>
+    <sheet name="ExtraSmallNet" sheetId="3" r:id="rId1"/>
+    <sheet name="SmallNet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>FC</t>
   </si>
@@ -79,12 +79,6 @@
     <t>MACs/s/MHz</t>
   </si>
   <si>
-    <t>AI84 RTL sim</t>
-  </si>
-  <si>
-    <t>AI84 1.1V (default trim)</t>
-  </si>
-  <si>
     <t>MHz</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>ME11 1.8V-3.3V</t>
   </si>
   <si>
-    <t>AI84 0.9V (default trim)</t>
-  </si>
-  <si>
     <t>AI84 0.9V (46 MHz)</t>
   </si>
   <si>
@@ -167,19 +158,29 @@
   </si>
   <si>
     <t>Top1 AI84 Quantized</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (70 MHz)</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (60 MHz)</t>
+  </si>
+  <si>
+    <t>AI84 0.9V (50 MHz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,15 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,9 +371,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,15 +393,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,9 +428,8 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -453,6 +439,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -768,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D82C4-D0AA-2641-9983-15DA8544D9A4}">
   <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -787,26 +780,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="21" thickBot="1">
-      <c r="B1" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="B1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="2:12" ht="18" thickTop="1" thickBot="1"/>
     <row r="3" spans="2:12">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -816,33 +809,33 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="6"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>24</v>
+      <c r="E4" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>24</v>
+      <c r="G4" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="12">
         <v>2</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="50" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="9">
         <v>9</v>
       </c>
@@ -870,7 +863,7 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -880,18 +873,18 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="6"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="12">
         <v>0</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>24</v>
+      <c r="E8" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>24</v>
+      <c r="G8" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="12">
         <v>2</v>
@@ -902,26 +895,27 @@
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G9" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H9" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1">
-        <v>192</v>
+        <f>8*16</f>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
@@ -936,7 +930,7 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -946,20 +940,20 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="6"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>24</v>
+      <c r="E12" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>24</v>
+      <c r="G12" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="12">
         <v>2</v>
@@ -970,7 +964,7 @@
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9">
@@ -1002,7 +996,7 @@
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1012,20 +1006,20 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="6"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>24</v>
+      <c r="E16" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="55" t="s">
-        <v>24</v>
+      <c r="G16" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="12">
         <v>2</v>
@@ -1036,23 +1030,23 @@
     </row>
     <row r="17" spans="2:13" ht="17" thickBot="1">
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E17" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G17" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H17" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
@@ -1063,7 +1057,7 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1073,20 +1067,20 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="6"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>24</v>
+      <c r="E20" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>24</v>
+      <c r="G20" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H20" s="12">
         <v>2</v>
@@ -1097,7 +1091,7 @@
     </row>
     <row r="21" spans="2:13" ht="17" thickBot="1">
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -1127,11 +1121,11 @@
     <row r="23" spans="2:13" ht="17" thickBot="1"/>
     <row r="24" spans="2:13">
       <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="46"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1143,7 +1137,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6"/>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="12">
@@ -1157,14 +1151,14 @@
       <c r="H25" s="12">
         <v>2</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="54" t="s">
+      <c r="I25" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="48" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="17" thickBot="1">
@@ -1172,50 +1166,50 @@
         <v>1</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="44">
+      <c r="D26" s="39">
         <f>D5*D9*D17*D21</f>
-        <v>112896</v>
+        <v>56448</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="44">
+      <c r="F26" s="39">
         <f>F5*F9*F17*F21</f>
-        <v>589824</v>
+        <v>147456</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="44">
+      <c r="H26" s="39">
         <f>H5*H9*H17*H21</f>
-        <v>27648</v>
-      </c>
-      <c r="I26" s="44">
+        <v>9216</v>
+      </c>
+      <c r="I26" s="39">
         <f>SUM(D26:H26)</f>
-        <v>730368</v>
-      </c>
-      <c r="J26" s="45">
+        <v>213120</v>
+      </c>
+      <c r="J26" s="40">
         <f>I5*I9*I17*I21</f>
-        <v>1920</v>
-      </c>
-      <c r="K26" s="52">
+        <v>1280</v>
+      </c>
+      <c r="K26" s="46">
         <f>I26</f>
-        <v>730368</v>
+        <v>213120</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="17" thickBot="1">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
+      <c r="D27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="46"/>
+        <v>37</v>
+      </c>
+      <c r="C28" s="41"/>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1227,32 +1221,32 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6"/>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
       </c>
-      <c r="E29" s="55" t="s">
-        <v>24</v>
+      <c r="E29" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="12">
         <v>1</v>
       </c>
-      <c r="G29" s="55" t="s">
-        <v>24</v>
+      <c r="G29" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H29" s="12">
         <v>2</v>
       </c>
-      <c r="I29" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="54" t="s">
+      <c r="I29" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="48" t="s">
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17" thickBot="1">
@@ -1260,58 +1254,58 @@
         <v>1</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="44">
+      <c r="D30" s="39">
         <f>D5*D9*D17*D21+D21*D17</f>
-        <v>125440</v>
-      </c>
-      <c r="E30" s="44">
+        <v>62720</v>
+      </c>
+      <c r="E30" s="39">
         <f>E21*E17*E5</f>
-        <v>12544</v>
-      </c>
-      <c r="F30" s="44">
+        <v>6272</v>
+      </c>
+      <c r="F30" s="39">
         <f>F5*F9*F17*F21+F21*F17</f>
-        <v>593920</v>
-      </c>
-      <c r="G30" s="44">
+        <v>149504</v>
+      </c>
+      <c r="G30" s="39">
         <f>G21*G17*G5</f>
-        <v>4096</v>
-      </c>
-      <c r="H30" s="44">
+        <v>2048</v>
+      </c>
+      <c r="H30" s="39">
         <f>H5*H9*H17*H21+H21*H17</f>
-        <v>27840</v>
-      </c>
-      <c r="I30" s="44">
+        <v>9344</v>
+      </c>
+      <c r="I30" s="39">
         <f>SUM(D30:H30)</f>
-        <v>763840</v>
-      </c>
-      <c r="J30" s="45">
+        <v>229888</v>
+      </c>
+      <c r="J30" s="40">
         <f>I5*I9*I17*I21</f>
-        <v>1920</v>
-      </c>
-      <c r="K30" s="52">
+        <v>1280</v>
+      </c>
+      <c r="K30" s="46">
         <f>I30</f>
-        <v>763840</v>
+        <v>229888</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
+      <c r="D31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
     </row>
     <row r="32" spans="2:13" ht="17" thickBot="1"/>
     <row r="33" spans="2:12">
       <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="41"/>
       <c r="D33" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1324,30 +1318,30 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="27" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="12" t="s">
@@ -1359,233 +1353,240 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>96</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="33">
         <f>K26</f>
-        <v>730368</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="7">
-        <f t="shared" ref="F35:F40" si="0">E35/1000/D35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="30" t="e">
-        <f t="shared" ref="G35:G40" si="1">1/F35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="30" t="e">
-        <f t="shared" ref="H35:H40" si="2">G35/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="49">
-        <f>I35/D35/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="48" t="e">
-        <f>1/K35</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>213120</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="43"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C36" s="7">
-        <f>121.95/4</f>
-        <v>30.487500000000001</v>
-      </c>
-      <c r="D36" s="39">
+        <f>70/2</f>
+        <v>35</v>
+      </c>
+      <c r="D36" s="34">
         <f>K26</f>
-        <v>730368</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>213120</v>
+      </c>
+      <c r="E36" s="51">
+        <v>0.35599999999999998</v>
+      </c>
       <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="21"/>
+        <f t="shared" ref="F36:F40" si="0">E36/1000/D36</f>
+        <v>1.6704204204204203E-9</v>
+      </c>
+      <c r="G36" s="25">
+        <f t="shared" ref="G36:G40" si="1">1/F36</f>
+        <v>598651685.39325845</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" ref="H36:H40" si="2">G36/C36</f>
+        <v>17104333.868378814</v>
+      </c>
+      <c r="I36" s="55">
+        <f>E36*J36</f>
+        <v>1.1214</v>
+      </c>
+      <c r="J36" s="20">
+        <f>0.9*3.5</f>
+        <v>3.15</v>
+      </c>
+      <c r="K36" s="44">
+        <f>I36/D36/1000000</f>
+        <v>5.2618243243243239E-12</v>
+      </c>
+      <c r="L36" s="16">
+        <f>1/K36</f>
+        <v>190048154093.09793</v>
+      </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D37" s="39">
+        <v>17</v>
+      </c>
+      <c r="C37" s="18">
+        <f>100/2</f>
+        <v>50</v>
+      </c>
+      <c r="D37" s="34">
         <f>K26</f>
-        <v>730368</v>
-      </c>
-      <c r="E37" s="25"/>
+        <v>213120</v>
+      </c>
+      <c r="E37" s="51">
+        <v>0.24299999999999999</v>
+      </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30" t="e">
+        <v>1.1402027027027027E-9</v>
+      </c>
+      <c r="G37" s="25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="30" t="e">
+        <v>877037037.03703701</v>
+      </c>
+      <c r="H37" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="24" t="e">
-        <f>I37/E37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="49">
-        <f>I37/D37/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="19" t="e">
-        <f>1/K37</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>17540740.740740739</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="22">
-        <f>100/2</f>
-        <v>50</v>
-      </c>
-      <c r="D38" s="39">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7">
+        <f>60/2</f>
+        <v>30</v>
+      </c>
+      <c r="D38" s="34">
         <f>K26</f>
-        <v>730368</v>
-      </c>
-      <c r="E38" s="25"/>
+        <v>213120</v>
+      </c>
+      <c r="E38" s="51">
+        <v>0.41599999999999998</v>
+      </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="30" t="e">
+        <v>1.9519519519519517E-9</v>
+      </c>
+      <c r="G38" s="25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="30" t="e">
+        <v>512307692.30769235</v>
+      </c>
+      <c r="H38" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="24" t="e">
-        <f>I38/E38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="49">
+        <v>17076923.07692308</v>
+      </c>
+      <c r="I38" s="55">
+        <f>E38*J38</f>
+        <v>1.1606399999999999</v>
+      </c>
+      <c r="J38" s="20">
+        <f>0.9*3.1</f>
+        <v>2.79</v>
+      </c>
+      <c r="K38" s="44">
         <f>I38/D38/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="19" t="e">
+        <v>5.4459459459459453E-12</v>
+      </c>
+      <c r="L38" s="16">
         <f>1/K38</f>
-        <v>#DIV/0!</v>
+        <v>183622828784.11914</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D39" s="39">
+        <f>50/2</f>
+        <v>25</v>
+      </c>
+      <c r="D39" s="34">
         <f>K26</f>
-        <v>730368</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="7">
+        <v>213120</v>
+      </c>
+      <c r="E39" s="51">
+        <v>0.499</v>
+      </c>
+      <c r="F39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="30" t="e">
+        <v>2.3414039039039039E-9</v>
+      </c>
+      <c r="G39" s="25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="30" t="e">
+        <v>427094188.37675351</v>
+      </c>
+      <c r="H39" s="25">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="24" t="e">
-        <f>I39/E39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="49">
+        <v>17083767.53507014</v>
+      </c>
+      <c r="I39" s="55">
+        <f>E39*J39</f>
+        <v>1.2170609999999999</v>
+      </c>
+      <c r="J39" s="20">
+        <f>0.9*2.71</f>
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="K39" s="44">
         <f>I39/D39/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="19" t="e">
+        <v>5.7106841216216211E-12</v>
+      </c>
+      <c r="L39" s="16">
         <f>1/K39</f>
-        <v>#DIV/0!</v>
+        <v>175110368338.15234</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17" thickBot="1">
-      <c r="B40" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="29">
-        <f>46/2</f>
-        <v>23</v>
-      </c>
-      <c r="D40" s="40">
+      <c r="B40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="24">
+        <f>46.2/2</f>
+        <v>23.1</v>
+      </c>
+      <c r="D40" s="35">
         <f>K26</f>
-        <v>730368</v>
-      </c>
-      <c r="E40" s="33"/>
+        <v>213120</v>
+      </c>
+      <c r="E40" s="52">
+        <v>0.54400000000000004</v>
+      </c>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="31" t="e">
+        <v>2.5525525525525526E-9</v>
+      </c>
+      <c r="G40" s="26">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="31" t="e">
+        <v>391764705.88235295</v>
+      </c>
+      <c r="H40" s="26">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="35" t="e">
-        <f>I40/E40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="50">
+        <v>16959511.077158134</v>
+      </c>
+      <c r="I40" s="56">
+        <f>E40*J40</f>
+        <v>1.2533760000000003</v>
+      </c>
+      <c r="J40" s="28">
+        <f>0.9*2.56</f>
+        <v>2.3040000000000003</v>
+      </c>
+      <c r="K40" s="45">
         <f>I40/D40/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="16" t="e">
+        <v>5.8810810810810817E-12</v>
+      </c>
+      <c r="L40" s="15">
         <f>1/K40</f>
-        <v>#DIV/0!</v>
+        <v>170036764705.88232</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="17" thickBot="1"/>
     <row r="43" spans="2:12">
       <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="46"/>
+        <v>24</v>
+      </c>
+      <c r="C43" s="41"/>
       <c r="D43" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1598,287 +1599,289 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="37" t="s">
+      <c r="H44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="7">
         <v>96</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="33">
         <f>K30</f>
-        <v>763840</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="7">
-        <f t="shared" ref="F45:F50" si="3">E45/1000/D45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="30" t="e">
-        <f t="shared" ref="G45:G50" si="4">1/F45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="30" t="e">
-        <f t="shared" ref="H45:H50" si="5">G45/C45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="36">
-        <f>E45*J45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="24">
-        <v>11.2</v>
-      </c>
-      <c r="K45" s="49">
-        <f>I45/D45/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="48" t="e">
-        <f>1/K45</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>229888</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="43"/>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C46" s="7">
-        <f>121.95/4</f>
-        <v>30.487500000000001</v>
-      </c>
-      <c r="D46" s="39">
+        <f>70/2</f>
+        <v>35</v>
+      </c>
+      <c r="D46" s="34">
         <f>K30</f>
-        <v>763840</v>
-      </c>
-      <c r="E46" s="25"/>
+        <v>229888</v>
+      </c>
+      <c r="E46" s="51">
+        <v>0.35599999999999998</v>
+      </c>
       <c r="F46" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="21"/>
+        <f t="shared" ref="F46:F50" si="3">E46/1000/D46</f>
+        <v>1.5485801781737192E-9</v>
+      </c>
+      <c r="G46" s="25">
+        <f t="shared" ref="G46:G50" si="4">1/F46</f>
+        <v>645752808.98876405</v>
+      </c>
+      <c r="H46" s="25">
+        <f t="shared" ref="H46:H50" si="5">G46/C46</f>
+        <v>18450080.25682183</v>
+      </c>
+      <c r="I46" s="55">
+        <f>E46*J46</f>
+        <v>1.1214</v>
+      </c>
+      <c r="J46" s="20">
+        <f>0.9*3.5</f>
+        <v>3.15</v>
+      </c>
+      <c r="K46" s="44">
+        <f>I46/D46/1000000</f>
+        <v>4.8780275612472157E-12</v>
+      </c>
+      <c r="L46" s="16">
+        <f>1/K46</f>
+        <v>205000891742.46478</v>
+      </c>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D47" s="39">
+        <v>17</v>
+      </c>
+      <c r="C47" s="18">
+        <f>100/2</f>
+        <v>50</v>
+      </c>
+      <c r="D47" s="34">
         <f>K30</f>
-        <v>763840</v>
-      </c>
-      <c r="E47" s="25"/>
+        <v>229888</v>
+      </c>
+      <c r="E47" s="51">
+        <v>0.24299999999999999</v>
+      </c>
       <c r="F47" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="30" t="e">
+        <v>1.0570364699331848E-9</v>
+      </c>
+      <c r="G47" s="25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="30" t="e">
+        <v>946041152.26337457</v>
+      </c>
+      <c r="H47" s="25">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="24" t="e">
-        <f>I47/E47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="49">
-        <f>I47/D47/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="19" t="e">
-        <f>1/K47</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>18920823.045267493</v>
+      </c>
+      <c r="I47" s="55"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="22">
-        <f>100/2</f>
-        <v>50</v>
-      </c>
-      <c r="D48" s="39">
+        <v>43</v>
+      </c>
+      <c r="C48" s="7">
+        <f>60/2</f>
+        <v>30</v>
+      </c>
+      <c r="D48" s="34">
         <f>K30</f>
-        <v>763840</v>
-      </c>
-      <c r="E48" s="25"/>
+        <v>229888</v>
+      </c>
+      <c r="E48" s="51">
+        <v>0.41599999999999998</v>
+      </c>
       <c r="F48" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="30" t="e">
+        <v>1.8095768374164809E-9</v>
+      </c>
+      <c r="G48" s="25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="30" t="e">
+        <v>552615384.6153847</v>
+      </c>
+      <c r="H48" s="25">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="24" t="e">
-        <f>I48/E48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="49">
+        <v>18420512.820512824</v>
+      </c>
+      <c r="I48" s="55">
+        <f>E48*J48</f>
+        <v>1.1606399999999999</v>
+      </c>
+      <c r="J48" s="20">
+        <f>0.9*3.1</f>
+        <v>2.79</v>
+      </c>
+      <c r="K48" s="44">
         <f>I48/D48/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="19" t="e">
+        <v>5.0487193763919822E-12</v>
+      </c>
+      <c r="L48" s="16">
         <f>1/K48</f>
-        <v>#DIV/0!</v>
+        <v>198070030328.09485</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C49" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D49" s="39">
+        <f>50/2</f>
+        <v>25</v>
+      </c>
+      <c r="D49" s="34">
         <f>K30</f>
-        <v>763840</v>
-      </c>
-      <c r="E49" s="25"/>
+        <v>229888</v>
+      </c>
+      <c r="E49" s="51">
+        <v>0.499</v>
+      </c>
       <c r="F49" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="30" t="e">
+        <v>2.1706222160356348E-9</v>
+      </c>
+      <c r="G49" s="25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="30" t="e">
+        <v>460697394.78957915</v>
+      </c>
+      <c r="H49" s="25">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="24" t="e">
-        <f>I49/E49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="49">
+        <v>18427895.791583166</v>
+      </c>
+      <c r="I49" s="55">
+        <f>E49*J49</f>
+        <v>1.2170609999999999</v>
+      </c>
+      <c r="J49" s="20">
+        <f>0.9*2.71</f>
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="K49" s="44">
         <f>I49/D49/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="19" t="e">
+        <v>5.2941475849109132E-12</v>
+      </c>
+      <c r="L49" s="16">
         <f>1/K49</f>
-        <v>#DIV/0!</v>
+        <v>188887820741.93488</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="17" thickBot="1">
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="29">
-        <f>46/2</f>
-        <v>23</v>
-      </c>
-      <c r="D50" s="40">
+      <c r="B50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="24">
+        <f>46.2/2</f>
+        <v>23.1</v>
+      </c>
+      <c r="D50" s="35">
         <f>K30</f>
-        <v>763840</v>
-      </c>
-      <c r="E50" s="33"/>
+        <v>229888</v>
+      </c>
+      <c r="E50" s="52">
+        <v>0.54400000000000004</v>
+      </c>
       <c r="F50" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="31" t="e">
+        <v>2.3663697104677058E-9</v>
+      </c>
+      <c r="G50" s="26">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="31" t="e">
+        <v>422588235.29411769</v>
+      </c>
+      <c r="H50" s="26">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="35" t="e">
-        <f>I50/E50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="50">
+        <v>18293862.999745354</v>
+      </c>
+      <c r="I50" s="56">
+        <f>E50*J50</f>
+        <v>1.2533760000000003</v>
+      </c>
+      <c r="J50" s="28">
+        <f>0.9*2.56</f>
+        <v>2.3040000000000003</v>
+      </c>
+      <c r="K50" s="45">
         <f>I50/D50/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="16" t="e">
+        <v>5.4521158129175962E-12</v>
+      </c>
+      <c r="L50" s="15">
         <f>1/K50</f>
-        <v>#DIV/0!</v>
+        <v>183415032679.73853</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>97.2</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>98.7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C55">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
     </row>
   </sheetData>
@@ -1887,11 +1890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D82C4-D0AA-2641-9983-15DA8544D9A4}">
-  <dimension ref="B1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64050710-60CE-6449-AD77-7E6717109F43}">
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1906,26 +1909,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="21" thickBot="1">
-      <c r="B1" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="B1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="2:12" ht="18" thickTop="1" thickBot="1"/>
     <row r="3" spans="2:12">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1935,33 +1938,33 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="6"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>24</v>
+      <c r="E4" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>24</v>
+      <c r="G4" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="12">
         <v>2</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="50" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="9">
         <v>9</v>
       </c>
@@ -1989,7 +1992,7 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1999,18 +2002,18 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="6"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="12">
         <v>0</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>24</v>
+      <c r="E8" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>24</v>
+      <c r="G8" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="12">
         <v>2</v>
@@ -2021,25 +2024,26 @@
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F9" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G9" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H9" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1">
+        <f>12*16</f>
         <v>192</v>
       </c>
     </row>
@@ -2055,7 +2059,7 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2065,20 +2069,20 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="6"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>24</v>
+      <c r="E12" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>24</v>
+      <c r="G12" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="12">
         <v>2</v>
@@ -2089,7 +2093,7 @@
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9">
@@ -2121,7 +2125,7 @@
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2131,20 +2135,20 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="6"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>24</v>
+      <c r="E16" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="55" t="s">
-        <v>24</v>
+      <c r="G16" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="12">
         <v>2</v>
@@ -2155,23 +2159,23 @@
     </row>
     <row r="17" spans="2:13" ht="17" thickBot="1">
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E17" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G17" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H17" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
@@ -2182,7 +2186,7 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2192,20 +2196,20 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="6"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>24</v>
+      <c r="E20" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>24</v>
+      <c r="G20" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H20" s="12">
         <v>2</v>
@@ -2216,7 +2220,7 @@
     </row>
     <row r="21" spans="2:13" ht="17" thickBot="1">
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -2246,11 +2250,11 @@
     <row r="23" spans="2:13" ht="17" thickBot="1"/>
     <row r="24" spans="2:13">
       <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="46"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2262,7 +2266,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6"/>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="12">
@@ -2276,14 +2280,14 @@
       <c r="H25" s="12">
         <v>2</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="54" t="s">
+      <c r="I25" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="48" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="17" thickBot="1">
@@ -2291,50 +2295,50 @@
         <v>1</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="44">
+      <c r="D26" s="39">
         <f>D5*D9*D17*D21</f>
-        <v>56448</v>
+        <v>112896</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="44">
+      <c r="F26" s="39">
         <f>F5*F9*F17*F21</f>
-        <v>147456</v>
+        <v>589824</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="44">
+      <c r="H26" s="39">
         <f>H5*H9*H17*H21</f>
-        <v>9216</v>
-      </c>
-      <c r="I26" s="44">
+        <v>27648</v>
+      </c>
+      <c r="I26" s="39">
         <f>SUM(D26:H26)</f>
-        <v>213120</v>
-      </c>
-      <c r="J26" s="45">
+        <v>730368</v>
+      </c>
+      <c r="J26" s="40">
         <f>I5*I9*I17*I21</f>
         <v>1920</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="46">
         <f>I26</f>
-        <v>213120</v>
+        <v>730368</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="17" thickBot="1">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
+      <c r="D27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="46"/>
+        <v>37</v>
+      </c>
+      <c r="C28" s="41"/>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2346,32 +2350,32 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6"/>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
       </c>
-      <c r="E29" s="55" t="s">
-        <v>24</v>
+      <c r="E29" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="F29" s="12">
         <v>1</v>
       </c>
-      <c r="G29" s="55" t="s">
-        <v>24</v>
+      <c r="G29" s="49" t="s">
+        <v>21</v>
       </c>
       <c r="H29" s="12">
         <v>2</v>
       </c>
-      <c r="I29" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="54" t="s">
+      <c r="I29" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="48" t="s">
         <v>0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17" thickBot="1">
@@ -2379,58 +2383,58 @@
         <v>1</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="44">
+      <c r="D30" s="39">
         <f>D5*D9*D17*D21+D21*D17</f>
-        <v>62720</v>
-      </c>
-      <c r="E30" s="44">
+        <v>125440</v>
+      </c>
+      <c r="E30" s="39">
         <f>E21*E17*E5</f>
-        <v>6272</v>
-      </c>
-      <c r="F30" s="44">
+        <v>12544</v>
+      </c>
+      <c r="F30" s="39">
         <f>F5*F9*F17*F21+F21*F17</f>
-        <v>149504</v>
-      </c>
-      <c r="G30" s="44">
+        <v>593920</v>
+      </c>
+      <c r="G30" s="39">
         <f>G21*G17*G5</f>
-        <v>2048</v>
-      </c>
-      <c r="H30" s="44">
+        <v>4096</v>
+      </c>
+      <c r="H30" s="39">
         <f>H5*H9*H17*H21+H21*H17</f>
-        <v>9344</v>
-      </c>
-      <c r="I30" s="44">
+        <v>27840</v>
+      </c>
+      <c r="I30" s="39">
         <f>SUM(D30:H30)</f>
-        <v>229888</v>
-      </c>
-      <c r="J30" s="45">
+        <v>763840</v>
+      </c>
+      <c r="J30" s="40">
         <f>I5*I9*I17*I21</f>
         <v>1920</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="46">
         <f>I30</f>
-        <v>229888</v>
+        <v>763840</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
+      <c r="D31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
     </row>
     <row r="32" spans="2:13" ht="17" thickBot="1"/>
     <row r="33" spans="2:12">
       <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="41"/>
       <c r="D33" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2443,30 +2447,30 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="27" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="12" t="s">
@@ -2478,526 +2482,183 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>96</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="33">
         <f>K26</f>
-        <v>213120</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="7">
-        <f t="shared" ref="F35:F40" si="0">E35/1000/D35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="30" t="e">
-        <f t="shared" ref="G35:G40" si="1">1/F35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="30" t="e">
-        <f t="shared" ref="H35:H40" si="2">G35/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="49">
-        <f>I35/D35/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="48" t="e">
-        <f>1/K35</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="7">
-        <f>121.95/4</f>
-        <v>30.487500000000001</v>
-      </c>
-      <c r="D36" s="39">
-        <f>K26</f>
-        <v>213120</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="21"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D37" s="39">
-        <f>K26</f>
-        <v>213120</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="24" t="e">
-        <f>I37/E37</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="49">
-        <f>I37/D37/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="19" t="e">
-        <f>1/K37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="22">
+        <v>730368</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="43"/>
+    </row>
+    <row r="36" spans="2:12" ht="17" thickBot="1">
+      <c r="B36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="24">
         <f>100/2</f>
         <v>50</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D36" s="57">
         <f>K26</f>
-        <v>213120</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="24" t="e">
-        <f>I38/E38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="49">
-        <f>I38/D38/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="19" t="e">
-        <f>1/K38</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+        <v>730368</v>
+      </c>
+      <c r="E36" s="52">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36" si="0">E36/1000/D36</f>
+        <v>5.6409919383105501E-10</v>
+      </c>
+      <c r="G36" s="26">
+        <f t="shared" ref="G36" si="1">1/F36</f>
+        <v>1772737864.0776699</v>
+      </c>
+      <c r="H36" s="26">
+        <f t="shared" ref="H36" si="2">G36/C36</f>
+        <v>35454757.281553395</v>
+      </c>
+      <c r="I36" s="53"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="38" spans="2:12" ht="17" thickBot="1"/>
     <row r="39" spans="2:12">
-      <c r="B39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D39" s="39">
-        <f>K26</f>
-        <v>213120</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="24" t="e">
-        <f>I39/E39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="49">
-        <f>I39/D39/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="19" t="e">
-        <f>1/K39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="17" thickBot="1">
-      <c r="B40" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="29">
-        <f>46/2</f>
+      <c r="B39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="40">
-        <f>K26</f>
-        <v>213120</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="35" t="e">
-        <f>I40/E40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="50">
-        <f>I40/D40/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="16" t="e">
-        <f>1/K40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="17" thickBot="1"/>
-    <row r="43" spans="2:12">
-      <c r="B43" s="3" t="s">
+      <c r="H40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="3" t="s">
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="47" t="s">
+      <c r="C41" s="7">
+        <v>96</v>
+      </c>
+      <c r="D41" s="33">
+        <f>K30</f>
+        <v>763840</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="43"/>
+    </row>
+    <row r="42" spans="2:12" ht="17" thickBot="1">
+      <c r="B42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="7">
-        <v>96</v>
-      </c>
-      <c r="D45" s="38">
-        <f>K30</f>
-        <v>229888</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="7">
-        <f t="shared" ref="F45:F50" si="3">E45/1000/D45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="30" t="e">
-        <f t="shared" ref="G45:G50" si="4">1/F45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="30" t="e">
-        <f t="shared" ref="H45:H50" si="5">G45/C45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="36">
-        <f>E45*J45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="24">
-        <v>11.2</v>
-      </c>
-      <c r="K45" s="49">
-        <f>I45/D45/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="48" t="e">
-        <f>1/K45</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="7">
-        <f>121.95/4</f>
-        <v>30.487500000000001</v>
-      </c>
-      <c r="D46" s="39">
-        <f>K30</f>
-        <v>229888</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="21"/>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D47" s="39">
-        <f>K30</f>
-        <v>229888</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="24" t="e">
-        <f>I47/E47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="49">
-        <f>I47/D47/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="19" t="e">
-        <f>1/K47</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="22">
+      <c r="C42" s="24">
         <f>100/2</f>
         <v>50</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D42" s="57">
         <f>K30</f>
-        <v>229888</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="24" t="e">
-        <f>I48/E48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="49">
-        <f>I48/D48/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="19" t="e">
-        <f>1/K48</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="7">
-        <f>31.44/2</f>
-        <v>15.72</v>
-      </c>
-      <c r="D49" s="39">
-        <f>K30</f>
-        <v>229888</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="24" t="e">
-        <f>I49/E49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="49">
-        <f>I49/D49/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="19" t="e">
-        <f>1/K49</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="17" thickBot="1">
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="29">
-        <f>46/2</f>
-        <v>23</v>
-      </c>
-      <c r="D50" s="40">
-        <f>K30</f>
-        <v>229888</v>
-      </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="31" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="31" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="35" t="e">
-        <f>I50/E50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="50">
-        <f>I50/D50/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="16" t="e">
-        <f>1/K50</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55">
-        <v>95.5</v>
+        <v>763840</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" ref="F42" si="3">E42/1000/D42</f>
+        <v>5.3937997486384581E-10</v>
+      </c>
+      <c r="G42" s="26">
+        <f t="shared" ref="G42" si="4">1/F42</f>
+        <v>1853980582.524272</v>
+      </c>
+      <c r="H42" s="26">
+        <f t="shared" ref="H42" si="5">G42/C42</f>
+        <v>37079611.650485441</v>
+      </c>
+      <c r="I42" s="53"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>98.5</v>
       </c>
     </row>
   </sheetData>
